--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6775,13 +6775,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7495</v>
+        <v>7496</v>
       </c>
       <c r="D125" t="n">
         <v>1184</v>
       </c>
       <c r="E125" t="n">
-        <v>21785436</v>
+        <v>21787964</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -10396,13 +10396,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6160</v>
+        <v>6165</v>
       </c>
       <c r="D196" t="n">
         <v>1187</v>
       </c>
       <c r="E196" t="n">
-        <v>25365330</v>
+        <v>25375594</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8765</v>
+        <v>8766</v>
       </c>
       <c r="D201" t="n">
         <v>1106</v>
       </c>
       <c r="E201" t="n">
-        <v>30579438</v>
+        <v>30579453</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7557</v>
+        <v>7558</v>
       </c>
       <c r="D407" t="n">
         <v>816</v>
       </c>
       <c r="E407" t="n">
-        <v>37624900</v>
+        <v>37634900</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -39925,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="D775" t="n">
         <v>712</v>
       </c>
       <c r="E775" t="n">
-        <v>14064512</v>
+        <v>14067448</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17566</v>
+        <v>17567</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110702730</v>
+        <v>110705530</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78163</v>
+        <v>78164</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184113200</v>
+        <v>184193612</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40351</v>
+        <v>40352</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286711797</v>
+        <v>286743006</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50258</v>
+        <v>50259</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156888595</v>
+        <v>156896251</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21660</v>
+        <v>21661</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86080002</v>
+        <v>86088502</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108607</v>
+        <v>108612</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560816258</v>
+        <v>560844478</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182200</v>
+        <v>182209</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1647681032</v>
+        <v>1647951389</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60049</v>
+        <v>60053</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288516413</v>
+        <v>288556573</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44056,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>8664</v>
+        <v>8666</v>
       </c>
       <c r="D856" t="n">
         <v>1645</v>
       </c>
       <c r="E856" t="n">
-        <v>44360776</v>
+        <v>44393536</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23232</v>
+        <v>23233</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82735442</v>
+        <v>82750037</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183871</v>
+        <v>183875</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552963910</v>
+        <v>552992817</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34649</v>
+        <v>34650</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70055446</v>
+        <v>70058556</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114964</v>
+        <v>114968</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418325118</v>
+        <v>418375163</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48541</v>
+        <v>48543</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132911877</v>
+        <v>133102811</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127493</v>
+        <v>127495</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277425743</v>
+        <v>277427855</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11126</v>
+        <v>11127</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44116847</v>
+        <v>44175571</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6422</v>
+        <v>6424</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19153407</v>
+        <v>19297530</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -64252,13 +64252,13 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>24202</v>
+        <v>24203</v>
       </c>
       <c r="D1252" t="n">
         <v>2723</v>
       </c>
       <c r="E1252" t="n">
-        <v>152212322</v>
+        <v>152237833</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
@@ -78277,13 +78277,13 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="D1527" t="n">
         <v>718</v>
       </c>
       <c r="E1527" t="n">
-        <v>15086414</v>
+        <v>15087659</v>
       </c>
       <c r="F1527" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41897</v>
+        <v>41899</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114358647</v>
+        <v>114575135</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
